--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.05881766666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.176453</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>18.359437</v>
-      </c>
-      <c r="H2">
-        <v>55.078311</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.227365333333332</v>
+        <v>2.473670666666667</v>
       </c>
       <c r="N2">
-        <v>21.682096</v>
+        <v>7.421011999999999</v>
       </c>
       <c r="O2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
       <c r="P2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
       <c r="Q2">
-        <v>132.6903585133173</v>
+        <v>0.1454955367151111</v>
       </c>
       <c r="R2">
-        <v>1194.213226619856</v>
+        <v>1.309459830436</v>
       </c>
       <c r="S2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
       <c r="T2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H3">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>91.794633</v>
       </c>
       <c r="O3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
       <c r="P3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
       <c r="Q3">
-        <v>561.765927167207</v>
+        <v>1.799715375194333</v>
       </c>
       <c r="R3">
-        <v>5055.893344504863</v>
+        <v>16.197438376749</v>
       </c>
       <c r="S3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
       <c r="T3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H4">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>61.225119</v>
       </c>
       <c r="O4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
       <c r="P4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
       <c r="Q4">
-        <v>374.686238366001</v>
+        <v>1.200372880323</v>
       </c>
       <c r="R4">
-        <v>3372.176145294009</v>
+        <v>10.803355922907</v>
       </c>
       <c r="S4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
       <c r="T4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
     </row>
   </sheetData>
